--- a/test-tools/PURE_LAMBDA_RESULTS/PURE_COLD_STARTS/NODE_PURE_COLDSTART.xlsx
+++ b/test-tools/PURE_LAMBDA_RESULTS/PURE_COLD_STARTS/NODE_PURE_COLDSTART.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisconnor/Sites/HONOURS_PROJECT/test-tools/PURE_LAMBDA_RESULTS/PURE_COLD_STARTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C89AEC2-DC48-A24D-B610-7284C12004BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDC6A40-E86E-7B48-8AF4-276FCCC9B2EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51620" yWindow="4960" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="221" r:id="rId5"/>
+    <pivotCache cacheId="225" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1282,6 +1282,33 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Node Direct Invocation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Statistics</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1653,6 +1680,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Duration </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0&quot;ms&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1685,6 +1765,41 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1694,7 +1809,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2785,7 +2900,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="247" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3689,7 +3804,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable18" cacheId="221" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable18" cacheId="225" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
